--- a/Units/m5camera/M5 Camera Main Comparison.xlsx
+++ b/Units/m5camera/M5 Camera Main Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\m5tack\m5stack的硬件资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github_code\M5-Schematic\Units\m5camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B3EE55-7005-4C65-AA27-EC0789342AB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA40598-4DEC-4C5E-BDCD-BA3AEF98C603}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
   <si>
     <t>ESP32CAM</t>
   </si>
@@ -34,16 +34,6 @@
   </si>
   <si>
     <t>4MB</t>
-  </si>
-  <si>
-    <t>4MB Flash 
-+ 
-4MB PSRAM</t>
-  </si>
-  <si>
-    <t>4MB Flash
- + 
-4MB PSRAM</t>
   </si>
   <si>
     <t>Lens type</t>
@@ -85,10 +75,6 @@
   </si>
   <si>
     <t>图片</t>
-  </si>
-  <si>
-    <t>4MB Flash + 
-4MB PSRAM</t>
   </si>
   <si>
     <t>接口</t>
@@ -302,63 +288,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">普通型
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">视场
-范围：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>78</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFE2C23"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -438,12 +367,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>4MB Flash 
-+ 
-4MB PSRAM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Interface 
 </t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -457,12 +380,6 @@
 1x LEGO Accessories
 Type-C USB Cable 
 User Manual</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal type
-(Field of View: 
-78 Degree)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -531,76 +448,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>4MB Flash 
-+ 
-4MB 
-PSRAM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4MB Flash
- + 
-4MB 
-PSRAM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ノーマルレンズ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>視野角</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 
-78 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1183,6 +1030,139 @@
         <charset val="134"/>
       </rPr>
       <t>线</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520KB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520KB
++
+4MB PSRAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ノーマルレンズ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>視野角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 
+65 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal type
+(Field of View: 
+65 Degree)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">普通型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">视场
+范围：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1191,7 +1171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1275,6 +1255,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1323,7 +1309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,6 +1365,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2238,186 +2227,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="31.75" customWidth="1"/>
-    <col min="11" max="12" width="8.75"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="31.75" customWidth="1"/>
+    <col min="12" max="13" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45">
+    <row r="1" spans="1:11" ht="45">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
+      <c r="E1" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="93.75" customHeight="1">
+    <row r="2" spans="1:11" ht="93.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="102.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="126" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="126" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>63</v>
+      <c r="C5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="102.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="126" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="126" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="7" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="8" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="9" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="10" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="11" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="12" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="13" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="14" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="15" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:10" ht="12.95" customHeight="1"/>
+    <row r="6" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="7" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="8" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="9" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="10" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="11" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="12" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="13" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="14" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="15" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:11" ht="12.95" customHeight="1"/>
     <row r="17" ht="12.95" customHeight="1"/>
     <row r="18" ht="12.95" customHeight="1"/>
     <row r="19" ht="12.95" customHeight="1"/>
@@ -2541,186 +2545,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="43.625" customWidth="1"/>
-    <col min="11" max="12" width="8.75"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="43.625" customWidth="1"/>
+    <col min="12" max="13" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="77.099999999999994" customHeight="1">
+    <row r="1" spans="1:11" ht="77.099999999999994" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="72" customHeight="1">
+    <row r="2" spans="1:11" ht="72" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="80.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="88.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="71.25" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="C5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="80.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="88.5" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="71.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="7" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="8" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="9" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="10" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="11" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="12" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="13" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="14" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="15" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:10" ht="12.95" customHeight="1"/>
+    <row r="6" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="7" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="8" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="9" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="10" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="11" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="12" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="13" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="14" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="15" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:11" ht="12.95" customHeight="1"/>
     <row r="17" ht="12.95" customHeight="1"/>
     <row r="18" ht="12.95" customHeight="1"/>
     <row r="19" ht="12.95" customHeight="1"/>
@@ -2838,192 +2858,209 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="12" width="8.75"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="12" max="13" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="77.099999999999994" customHeight="1">
+    <row r="1" spans="1:11" ht="77.099999999999994" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="88.5" customHeight="1">
+    <row r="2" spans="1:11" ht="88.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="111.95" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="119.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="125.25" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>83</v>
+      <c r="C5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="111.95" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="119.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="125.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="7" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="8" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="9" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="10" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="11" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="12" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="13" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="14" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="15" spans="1:10" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:10" ht="12.95" customHeight="1"/>
+    <row r="6" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="7" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="8" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="9" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="10" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="11" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="12" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="13" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="14" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="15" spans="1:11" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:11" ht="12.95" customHeight="1"/>
     <row r="17" ht="12.95" customHeight="1"/>
     <row r="18" ht="12.95" customHeight="1"/>
     <row r="19" ht="12.95" customHeight="1"/>
